--- a/trunk/doc/美術需求.xlsx
+++ b/trunk/doc/美術需求.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="23715" windowHeight="11430"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="9360" windowHeight="3570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>未戴帽</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,14 +123,18 @@
   </si>
   <si>
     <t>須再修正.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -191,6 +195,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -269,6 +278,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -303,6 +313,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,16 +489,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -495,7 +506,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -512,7 +523,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -523,7 +534,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -534,7 +545,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -548,7 +559,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -559,57 +570,66 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -622,12 +642,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -635,12 +655,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/doc/美術需求.xlsx
+++ b/trunk/doc/美術需求.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="9360" windowHeight="3570"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>未戴帽</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>警察警告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>公仔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,6 +119,18 @@
   </si>
   <si>
     <t>須再修正.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示視窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警察警告(人物+視窗)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -133,8 +141,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -278,7 +286,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -313,7 +320,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -489,16 +495,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="6" max="6" width="18.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -506,7 +515,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -520,10 +529,10 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -534,7 +543,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -542,10 +551,18 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -555,81 +572,79 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -642,12 +657,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -655,12 +670,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/doc/美術需求.xlsx
+++ b/trunk/doc/美術需求.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>未戴帽</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,14 @@
   </si>
   <si>
     <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠公仔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動畫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -507,7 +515,7 @@
     <col min="6" max="6" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -515,7 +523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -532,7 +540,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -542,8 +550,11 @@
       <c r="F3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -553,8 +564,17 @@
       <c r="F4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -562,7 +582,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -573,12 +593,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -586,7 +606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -600,7 +620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -611,7 +631,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -619,17 +639,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>

--- a/trunk/doc/美術需求.xlsx
+++ b/trunk/doc/美術需求.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>未戴帽</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,22 @@
   </si>
   <si>
     <t>動畫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺動畫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -597,76 +613,99 @@
       <c r="A7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/doc/美術需求.xlsx
+++ b/trunk/doc/美術需求.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>未戴帽</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +159,10 @@
   </si>
   <si>
     <t>缺動畫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,7 +527,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -668,10 +672,16 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2">
